--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateWeek1LDOD1BRNTOTK50percentRL.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateWeek1LDOD1BRNTOTK50percentRL.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="384" yWindow="264" windowWidth="14340" windowHeight="4272" activeTab="3"/>
+    <workbookView xWindow="390" yWindow="270" windowWidth="14340" windowHeight="4275" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -199,9 +204,6 @@
     <t>DO NOT TOUCH - TAX PAYROLL AUTOMATION</t>
   </si>
   <si>
-    <t>F:\\Automation NI Reports\\HMRCTestData\\Updated Income tax calculation script creation scenarios.xlsx</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -215,12 +217,15 @@
   </si>
   <si>
     <t>Weekly_Payroll</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201516\\Updated Income tax calculation script creation scenarios.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -455,6 +460,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -502,7 +510,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -535,9 +543,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -570,6 +595,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -752,15 +794,15 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -774,7 +816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -788,7 +830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -802,7 +844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -816,7 +858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -844,16 +886,16 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="37.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -879,7 +921,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>19</v>
       </c>
@@ -900,7 +942,7 @@
       </c>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>20</v>
       </c>
@@ -921,7 +963,7 @@
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>21</v>
       </c>
@@ -942,7 +984,7 @@
       </c>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>22</v>
       </c>
@@ -963,7 +1005,7 @@
       </c>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>23</v>
       </c>
@@ -984,7 +1026,7 @@
       </c>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>35</v>
       </c>
@@ -1004,7 +1046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>36</v>
       </c>
@@ -1024,7 +1066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>37</v>
       </c>
@@ -1044,7 +1086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>38</v>
       </c>
@@ -1064,7 +1106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>39</v>
       </c>
@@ -1084,7 +1126,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>40</v>
       </c>
@@ -1104,7 +1146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>41</v>
       </c>
@@ -1124,7 +1166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>42</v>
       </c>
@@ -1144,7 +1186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>43</v>
       </c>
@@ -1173,25 +1215,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C15"/>
+    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="48.44140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="40.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="48.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="40.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>48</v>
       </c>
@@ -1232,7 +1274,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="26" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="26" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>57</v>
       </c>
@@ -1240,7 +1282,7 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>24</v>
@@ -1249,25 +1291,25 @@
         <v>58</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G2" s="28" t="s">
         <v>59</v>
       </c>
       <c r="H2" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="J2" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="J2" s="25" t="s">
-        <v>62</v>
-      </c>
       <c r="K2" s="26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>57</v>
       </c>
@@ -1275,7 +1317,7 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>24</v>
@@ -1284,25 +1326,25 @@
         <v>58</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G3" s="28" t="s">
         <v>59</v>
       </c>
       <c r="H3" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="J3" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="J3" s="25" t="s">
-        <v>62</v>
-      </c>
       <c r="K3" s="26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>57</v>
       </c>
@@ -1310,7 +1352,7 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" s="25" t="s">
         <v>24</v>
@@ -1319,25 +1361,25 @@
         <v>58</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G4" s="28" t="s">
         <v>59</v>
       </c>
       <c r="H4" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="J4" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="25" t="s">
-        <v>62</v>
-      </c>
       <c r="K4" s="26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>57</v>
       </c>
@@ -1345,7 +1387,7 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>24</v>
@@ -1354,25 +1396,25 @@
         <v>58</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G5" s="28" t="s">
         <v>59</v>
       </c>
       <c r="H5" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="J5" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="25" t="s">
-        <v>62</v>
-      </c>
       <c r="K5" s="26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>57</v>
       </c>
@@ -1380,7 +1422,7 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>24</v>
@@ -1389,25 +1431,25 @@
         <v>58</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G6" s="28" t="s">
         <v>59</v>
       </c>
       <c r="H6" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="J6" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="J6" s="25" t="s">
-        <v>62</v>
-      </c>
       <c r="K6" s="26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>57</v>
       </c>
@@ -1415,7 +1457,7 @@
         <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>24</v>
@@ -1424,25 +1466,25 @@
         <v>58</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>59</v>
       </c>
       <c r="H7" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="J7" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="J7" s="25" t="s">
-        <v>62</v>
-      </c>
       <c r="K7" s="26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>57</v>
       </c>
@@ -1450,7 +1492,7 @@
         <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>24</v>
@@ -1459,25 +1501,25 @@
         <v>58</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G8" s="28" t="s">
         <v>59</v>
       </c>
       <c r="H8" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="I8" s="25" t="s">
+      <c r="J8" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="J8" s="25" t="s">
-        <v>62</v>
-      </c>
       <c r="K8" s="26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>57</v>
       </c>
@@ -1485,7 +1527,7 @@
         <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>24</v>
@@ -1494,25 +1536,25 @@
         <v>58</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G9" s="28" t="s">
         <v>59</v>
       </c>
       <c r="H9" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="J9" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="J9" s="25" t="s">
-        <v>62</v>
-      </c>
       <c r="K9" s="26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>57</v>
       </c>
@@ -1520,7 +1562,7 @@
         <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>24</v>
@@ -1529,25 +1571,25 @@
         <v>58</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G10" s="28" t="s">
         <v>59</v>
       </c>
       <c r="H10" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="I10" s="25" t="s">
+      <c r="J10" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="J10" s="25" t="s">
-        <v>62</v>
-      </c>
       <c r="K10" s="26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>57</v>
       </c>
@@ -1555,7 +1597,7 @@
         <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" s="25" t="s">
         <v>24</v>
@@ -1564,25 +1606,25 @@
         <v>58</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G11" s="28" t="s">
         <v>59</v>
       </c>
       <c r="H11" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="J11" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="J11" s="25" t="s">
-        <v>62</v>
-      </c>
       <c r="K11" s="26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>57</v>
       </c>
@@ -1590,7 +1632,7 @@
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>24</v>
@@ -1599,25 +1641,25 @@
         <v>58</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G12" s="28" t="s">
         <v>59</v>
       </c>
       <c r="H12" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="I12" s="25" t="s">
+      <c r="J12" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="J12" s="25" t="s">
-        <v>62</v>
-      </c>
       <c r="K12" s="26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>57</v>
       </c>
@@ -1625,7 +1667,7 @@
         <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>24</v>
@@ -1634,25 +1676,25 @@
         <v>58</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G13" s="28" t="s">
         <v>59</v>
       </c>
       <c r="H13" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="I13" s="25" t="s">
+      <c r="J13" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="J13" s="25" t="s">
-        <v>62</v>
-      </c>
       <c r="K13" s="26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>57</v>
       </c>
@@ -1660,7 +1702,7 @@
         <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>24</v>
@@ -1669,25 +1711,25 @@
         <v>58</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G14" s="28" t="s">
         <v>59</v>
       </c>
       <c r="H14" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="I14" s="25" t="s">
+      <c r="J14" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="J14" s="25" t="s">
-        <v>62</v>
-      </c>
       <c r="K14" s="26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>57</v>
       </c>
@@ -1695,7 +1737,7 @@
         <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>24</v>
@@ -1704,19 +1746,19 @@
         <v>58</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G15" s="28" t="s">
         <v>59</v>
       </c>
       <c r="H15" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="I15" s="25" t="s">
+      <c r="J15" s="25" t="s">
         <v>61</v>
-      </c>
-      <c r="J15" s="25" t="s">
-        <v>62</v>
       </c>
       <c r="K15" s="26" t="s">
         <v>4</v>
@@ -1732,22 +1774,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="36" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="32.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="32.42578125" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="36" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -1788,7 +1830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="33" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="33" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>57</v>
       </c>
@@ -1796,7 +1838,7 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>24</v>
@@ -1805,19 +1847,19 @@
         <v>58</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G2" s="31" t="s">
         <v>59</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K2" s="32" t="s">
         <v>4</v>
